--- a/biology/Botanique/Euphorbia_paniculata/Euphorbia_paniculata.xlsx
+++ b/biology/Botanique/Euphorbia_paniculata/Euphorbia_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia paniculata est une espèce de plantes à fleurs de la famille des Euphorbiacées poussant dans le sud de l'Europe et au Maghreb.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Portugal, en Espagne, au Maroc, en Algérie et en Tunisie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Portugal, en Espagne, au Maroc, en Algérie et en Tunisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 juillet 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 juillet 2017) :
 sous-espèce Euphorbia paniculata subsp. monchiquensis (Franco &amp; P.Silva) Vicens, Molero &amp; C.Blanché
 sous-espèce Euphorbia paniculata subsp. paniculata
 sous-espèce Euphorbia paniculata subsp. welwitschii (Boiss. &amp; Reut.) Vicens, Molero &amp; C.Blanché</t>
